--- a/REGULAR/ONT/DOGNIDON, MARLYN.xlsx
+++ b/REGULAR/ONT/DOGNIDON, MARLYN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,20 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="210">
   <si>
     <t>PERIOD</t>
   </si>
@@ -668,6 +660,9 @@
   </si>
   <si>
     <t>10/17-19/2023</t>
+  </si>
+  <si>
+    <t>12/14,15/2023</t>
   </si>
 </sst>
 </file>
@@ -904,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1050,9 +1045,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1699,10 +1691,10 @@
   </sheetPr>
   <dimension ref="A2:K379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A322" activePane="bottomLeft"/>
-      <selection activeCell="D3" sqref="D3"/>
-      <selection pane="bottomLeft" activeCell="E334" sqref="E334"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A325" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="I329" sqref="I329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,60 +1716,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1803,18 +1795,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1861,7 +1853,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>117.459</v>
+        <v>117.959</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1871,7 +1863,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>261.88499999999999</v>
+        <v>264.38499999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2184,7 +2176,7 @@
         <f t="shared" si="1"/>
         <v>37469</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="13">
@@ -2209,7 +2201,7 @@
         <f t="shared" si="1"/>
         <v>37500</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="13">
         <v>1.25</v>
       </c>
@@ -2230,7 +2222,7 @@
         <f>EDATE(A26,1)</f>
         <v>37530</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="13">
         <v>1.25</v>
       </c>
@@ -2251,7 +2243,7 @@
         <f t="shared" si="1"/>
         <v>37561</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="13">
         <v>1.25</v>
       </c>
@@ -2272,7 +2264,7 @@
         <f t="shared" si="1"/>
         <v>37591</v>
       </c>
-      <c r="B29" s="51"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="13">
         <v>1.25</v>
       </c>
@@ -2292,7 +2284,7 @@
       <c r="A30" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
       <c r="E30" s="13"/>
@@ -2311,7 +2303,7 @@
         <f>EDATE(A29,1)</f>
         <v>37622</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="13">
         <v>1.25</v>
       </c>
@@ -2332,7 +2324,7 @@
         <f>EDATE(A31,1)</f>
         <v>37653</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
@@ -2353,7 +2345,7 @@
         <f t="shared" ref="A33:A42" si="2">EDATE(A32,1)</f>
         <v>37681</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
@@ -2374,7 +2366,7 @@
         <f t="shared" si="2"/>
         <v>37712</v>
       </c>
-      <c r="B34" s="51"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="13">
         <v>1.25</v>
       </c>
@@ -2395,7 +2387,7 @@
         <f t="shared" si="2"/>
         <v>37742</v>
       </c>
-      <c r="B35" s="51"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
@@ -2416,7 +2408,7 @@
         <f t="shared" si="2"/>
         <v>37773</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="13">
         <v>1.25</v>
       </c>
@@ -2437,7 +2429,7 @@
         <f t="shared" si="2"/>
         <v>37803</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="13">
@@ -2462,7 +2454,7 @@
         <f t="shared" si="2"/>
         <v>37834</v>
       </c>
-      <c r="B38" s="51"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="13">
         <v>1.25</v>
       </c>
@@ -2483,7 +2475,7 @@
         <f t="shared" si="2"/>
         <v>37865</v>
       </c>
-      <c r="B39" s="51"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="13">
         <v>1.25</v>
       </c>
@@ -2504,7 +2496,7 @@
         <f t="shared" si="2"/>
         <v>37895</v>
       </c>
-      <c r="B40" s="51"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
@@ -2525,7 +2517,7 @@
         <f t="shared" si="2"/>
         <v>37926</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="13">
@@ -2552,7 +2544,7 @@
         <f t="shared" si="2"/>
         <v>37956</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="13">
         <v>1.25</v>
       </c>
@@ -2572,7 +2564,7 @@
       <c r="A43" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
       <c r="E43" s="13"/>
@@ -2591,7 +2583,7 @@
         <f>EDATE(A42,1)</f>
         <v>37987</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
@@ -2612,7 +2604,7 @@
         <f>EDATE(A44,1)</f>
         <v>38018</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="13">
@@ -2636,7 +2628,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C46" s="13"/>
@@ -2649,7 +2641,7 @@
       <c r="H46" s="39"/>
       <c r="I46" s="13"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="52">
+      <c r="K46" s="51">
         <v>44985</v>
       </c>
     </row>
@@ -2658,7 +2650,7 @@
         <f>EDATE(A45,1)</f>
         <v>38047</v>
       </c>
-      <c r="B47" s="51"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
@@ -2679,7 +2671,7 @@
         <f t="shared" ref="A48:A56" si="3">EDATE(A47,1)</f>
         <v>38078</v>
       </c>
-      <c r="B48" s="51"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
@@ -2700,7 +2692,7 @@
         <f t="shared" si="3"/>
         <v>38108</v>
       </c>
-      <c r="B49" s="51"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
@@ -2721,7 +2713,7 @@
         <f t="shared" si="3"/>
         <v>38139</v>
       </c>
-      <c r="B50" s="51"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
@@ -2742,7 +2734,7 @@
         <f t="shared" si="3"/>
         <v>38169</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C51" s="13">
@@ -2769,7 +2761,7 @@
         <f t="shared" si="3"/>
         <v>38200</v>
       </c>
-      <c r="B52" s="51"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="13">
         <v>1.25</v>
       </c>
@@ -2790,7 +2782,7 @@
         <f t="shared" si="3"/>
         <v>38231</v>
       </c>
-      <c r="B53" s="51"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="13">
         <v>1.25</v>
       </c>
@@ -2811,7 +2803,7 @@
         <f t="shared" si="3"/>
         <v>38261</v>
       </c>
-      <c r="B54" s="51"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
@@ -2832,7 +2824,7 @@
         <f t="shared" si="3"/>
         <v>38292</v>
       </c>
-      <c r="B55" s="51"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
@@ -2853,7 +2845,7 @@
         <f t="shared" si="3"/>
         <v>38322</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C56" s="13">
@@ -2871,13 +2863,13 @@
       <c r="H56" s="39"/>
       <c r="I56" s="13"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="52">
+      <c r="K56" s="51">
         <v>45279</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="13"/>
@@ -2890,13 +2882,13 @@
       <c r="H57" s="39"/>
       <c r="I57" s="13"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="52"/>
+      <c r="K57" s="51"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="51"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
       <c r="E58" s="13"/>
@@ -2915,7 +2907,7 @@
         <f>EDATE(A56,1)</f>
         <v>38353</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C59" s="13">
@@ -2942,7 +2934,7 @@
         <f>EDATE(A59,1)</f>
         <v>38384</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="13">
@@ -2967,7 +2959,7 @@
         <f t="shared" ref="A61:A71" si="4">EDATE(A60,1)</f>
         <v>38412</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="13">
@@ -2992,7 +2984,7 @@
         <f t="shared" si="4"/>
         <v>38443</v>
       </c>
-      <c r="B62" s="51"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="13">
         <v>1.25</v>
       </c>
@@ -3013,7 +3005,7 @@
         <f t="shared" si="4"/>
         <v>38473</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="13">
@@ -3040,7 +3032,7 @@
         <f t="shared" si="4"/>
         <v>38504</v>
       </c>
-      <c r="B64" s="51"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
@@ -3061,7 +3053,7 @@
         <f t="shared" si="4"/>
         <v>38534</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C65" s="13">
@@ -3079,7 +3071,7 @@
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="52">
+      <c r="K65" s="51">
         <v>45111</v>
       </c>
     </row>
@@ -3088,7 +3080,7 @@
         <f t="shared" si="4"/>
         <v>38565</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C66" s="13">
@@ -3115,7 +3107,7 @@
         <f t="shared" si="4"/>
         <v>38596</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="13">
@@ -3139,7 +3131,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="13"/>
@@ -3161,7 +3153,7 @@
         <f>EDATE(A67,1)</f>
         <v>38626</v>
       </c>
-      <c r="B69" s="51"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
@@ -3182,7 +3174,7 @@
         <f t="shared" si="4"/>
         <v>38657</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C70" s="13">
@@ -3200,7 +3192,7 @@
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="52">
+      <c r="K70" s="51">
         <v>45260</v>
       </c>
     </row>
@@ -3209,7 +3201,7 @@
         <f t="shared" si="4"/>
         <v>38687</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C71" s="13">
@@ -3233,7 +3225,7 @@
       <c r="A72" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="51"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
       <c r="E72" s="13"/>
@@ -3252,7 +3244,7 @@
         <f>EDATE(A71,1)</f>
         <v>38718</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C73" s="13">
@@ -3270,13 +3262,13 @@
       </c>
       <c r="I73" s="13"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="52">
+      <c r="K73" s="51">
         <v>44953</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="20" t="s">
         <v>94</v>
       </c>
       <c r="C74" s="13"/>
@@ -3296,7 +3288,7 @@
         <f>EDATE(A73,1)</f>
         <v>38749</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="20" t="s">
         <v>95</v>
       </c>
       <c r="C75" s="13">
@@ -3321,7 +3313,7 @@
         <f t="shared" ref="A76:A85" si="5">EDATE(A75,1)</f>
         <v>38777</v>
       </c>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C76" s="13">
@@ -3346,7 +3338,7 @@
         <f t="shared" si="5"/>
         <v>38808</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C77" s="13">
@@ -3370,7 +3362,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="13"/>
@@ -3390,7 +3382,7 @@
         <f>EDATE(A77,1)</f>
         <v>38838</v>
       </c>
-      <c r="B79" s="51"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
@@ -3411,7 +3403,7 @@
         <f t="shared" si="5"/>
         <v>38869</v>
       </c>
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="20" t="s">
         <v>97</v>
       </c>
       <c r="C80" s="13">
@@ -3436,7 +3428,7 @@
         <f t="shared" si="5"/>
         <v>38899</v>
       </c>
-      <c r="B81" s="51" t="s">
+      <c r="B81" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C81" s="13">
@@ -3461,7 +3453,7 @@
         <f t="shared" si="5"/>
         <v>38930</v>
       </c>
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C82" s="13">
@@ -3486,7 +3478,7 @@
         <f t="shared" si="5"/>
         <v>38961</v>
       </c>
-      <c r="B83" s="51"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
@@ -3507,7 +3499,7 @@
         <f t="shared" si="5"/>
         <v>38991</v>
       </c>
-      <c r="B84" s="51" t="s">
+      <c r="B84" s="20" t="s">
         <v>100</v>
       </c>
       <c r="C84" s="13">
@@ -3532,7 +3524,7 @@
         <f t="shared" si="5"/>
         <v>39022</v>
       </c>
-      <c r="B85" s="51"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
@@ -3553,7 +3545,7 @@
         <f>EDATE(A85,1)</f>
         <v>39052</v>
       </c>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C86" s="13">
@@ -3577,7 +3569,7 @@
       <c r="A87" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="51"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="13"/>
@@ -3596,7 +3588,7 @@
         <f>EDATE(A86,1)</f>
         <v>39083</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B88" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C88" s="13">
@@ -3621,7 +3613,7 @@
         <f>EDATE(A88,1)</f>
         <v>39114</v>
       </c>
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="20" t="s">
         <v>105</v>
       </c>
       <c r="C89" s="13">
@@ -3646,7 +3638,7 @@
         <f t="shared" ref="A90:A104" si="6">EDATE(A89,1)</f>
         <v>39142</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C90" s="13">
@@ -3664,13 +3656,13 @@
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="52">
+      <c r="K90" s="51">
         <v>44993</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C91" s="13"/>
@@ -3689,7 +3681,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C92" s="13"/>
@@ -3709,7 +3701,7 @@
         <f>EDATE(A90,1)</f>
         <v>39173</v>
       </c>
-      <c r="B93" s="51" t="s">
+      <c r="B93" s="20" t="s">
         <v>108</v>
       </c>
       <c r="C93" s="13">
@@ -3734,7 +3726,7 @@
         <f t="shared" si="6"/>
         <v>39203</v>
       </c>
-      <c r="B94" s="51"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="13">
         <v>1.25</v>
       </c>
@@ -3755,7 +3747,7 @@
         <f t="shared" si="6"/>
         <v>39234</v>
       </c>
-      <c r="B95" s="51"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
@@ -3776,7 +3768,7 @@
         <f t="shared" si="6"/>
         <v>39264</v>
       </c>
-      <c r="B96" s="51"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
@@ -3797,7 +3789,7 @@
         <f t="shared" si="6"/>
         <v>39295</v>
       </c>
-      <c r="B97" s="51" t="s">
+      <c r="B97" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C97" s="13">
@@ -3821,7 +3813,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
-      <c r="B98" s="51" t="s">
+      <c r="B98" s="20" t="s">
         <v>109</v>
       </c>
       <c r="C98" s="13"/>
@@ -3840,7 +3832,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
-      <c r="B99" s="51" t="s">
+      <c r="B99" s="20" t="s">
         <v>110</v>
       </c>
       <c r="C99" s="13"/>
@@ -3860,7 +3852,7 @@
         <f>EDATE(A97,1)</f>
         <v>39326</v>
       </c>
-      <c r="B100" s="51" t="s">
+      <c r="B100" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C100" s="13">
@@ -3885,7 +3877,7 @@
         <f t="shared" si="6"/>
         <v>39356</v>
       </c>
-      <c r="B101" s="51" t="s">
+      <c r="B101" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C101" s="13">
@@ -3909,7 +3901,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
-      <c r="B102" s="51" t="s">
+      <c r="B102" s="20" t="s">
         <v>112</v>
       </c>
       <c r="C102" s="13"/>
@@ -3929,7 +3921,7 @@
         <f>EDATE(A101,1)</f>
         <v>39387</v>
       </c>
-      <c r="B103" s="51" t="s">
+      <c r="B103" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C103" s="13">
@@ -3954,7 +3946,7 @@
         <f t="shared" si="6"/>
         <v>39417</v>
       </c>
-      <c r="B104" s="51" t="s">
+      <c r="B104" s="20" t="s">
         <v>114</v>
       </c>
       <c r="C104" s="13">
@@ -3978,7 +3970,7 @@
       <c r="A105" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="51"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
       <c r="E105" s="13"/>
@@ -3997,7 +3989,7 @@
         <f>EDATE(A104,1)</f>
         <v>39448</v>
       </c>
-      <c r="B106" s="51" t="s">
+      <c r="B106" s="20" t="s">
         <v>120</v>
       </c>
       <c r="C106" s="13">
@@ -4022,7 +4014,7 @@
         <f>EDATE(A106,1)</f>
         <v>39479</v>
       </c>
-      <c r="B107" s="51" t="s">
+      <c r="B107" s="20" t="s">
         <v>121</v>
       </c>
       <c r="C107" s="13">
@@ -4047,7 +4039,7 @@
         <f t="shared" ref="A108:A119" si="7">EDATE(A107,1)</f>
         <v>39508</v>
       </c>
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="20" t="s">
         <v>122</v>
       </c>
       <c r="C108" s="13">
@@ -4072,7 +4064,7 @@
         <f t="shared" si="7"/>
         <v>39539</v>
       </c>
-      <c r="B109" s="51" t="s">
+      <c r="B109" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C109" s="13">
@@ -4097,7 +4089,7 @@
         <f t="shared" si="7"/>
         <v>39569</v>
       </c>
-      <c r="B110" s="51"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="13">
         <v>1.25</v>
       </c>
@@ -4118,7 +4110,7 @@
         <f t="shared" si="7"/>
         <v>39600</v>
       </c>
-      <c r="B111" s="51"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="13">
         <v>1.25</v>
       </c>
@@ -4139,7 +4131,7 @@
         <f t="shared" si="7"/>
         <v>39630</v>
       </c>
-      <c r="B112" s="51" t="s">
+      <c r="B112" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C112" s="13">
@@ -4161,7 +4153,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
-      <c r="B113" s="51" t="s">
+      <c r="B113" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C113" s="13"/>
@@ -4181,7 +4173,7 @@
         <f>EDATE(A112,1)</f>
         <v>39661</v>
       </c>
-      <c r="B114" s="51" t="s">
+      <c r="B114" s="20" t="s">
         <v>125</v>
       </c>
       <c r="C114" s="13">
@@ -4206,7 +4198,7 @@
         <f t="shared" si="7"/>
         <v>39692</v>
       </c>
-      <c r="B115" s="51" t="s">
+      <c r="B115" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C115" s="13">
@@ -4228,7 +4220,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C116" s="13"/>
@@ -4248,7 +4240,7 @@
         <f>EDATE(A115,1)</f>
         <v>39722</v>
       </c>
-      <c r="B117" s="51"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="13">
         <v>1.25</v>
       </c>
@@ -4269,7 +4261,7 @@
         <f t="shared" si="7"/>
         <v>39753</v>
       </c>
-      <c r="B118" s="51"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="13">
         <v>1.25</v>
       </c>
@@ -4290,7 +4282,7 @@
         <f t="shared" si="7"/>
         <v>39783</v>
       </c>
-      <c r="B119" s="51"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="13">
         <v>1.25</v>
       </c>
@@ -4310,7 +4302,7 @@
       <c r="A120" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="B120" s="51"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
       <c r="E120" s="13"/>
@@ -4329,7 +4321,7 @@
         <f>EDATE(A119,1)</f>
         <v>39814</v>
       </c>
-      <c r="B121" s="51" t="s">
+      <c r="B121" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C121" s="13">
@@ -4354,7 +4346,7 @@
         <f>EDATE(A121,1)</f>
         <v>39845</v>
       </c>
-      <c r="B122" s="51" t="s">
+      <c r="B122" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C122" s="13">
@@ -4378,7 +4370,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
-      <c r="B123" s="51" t="s">
+      <c r="B123" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C123" s="13"/>
@@ -4398,7 +4390,7 @@
         <f>EDATE(A122,1)</f>
         <v>39873</v>
       </c>
-      <c r="B124" s="51" t="s">
+      <c r="B124" s="20" t="s">
         <v>130</v>
       </c>
       <c r="C124" s="13">
@@ -4422,7 +4414,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
-      <c r="B125" s="51" t="s">
+      <c r="B125" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C125" s="13"/>
@@ -4439,7 +4431,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
-      <c r="B126" s="51" t="s">
+      <c r="B126" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C126" s="13"/>
@@ -4458,7 +4450,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
-      <c r="B127" s="51" t="s">
+      <c r="B127" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C127" s="13"/>
@@ -4478,7 +4470,7 @@
         <f>EDATE(A124,1)</f>
         <v>39904</v>
       </c>
-      <c r="B128" s="51" t="s">
+      <c r="B128" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C128" s="13">
@@ -4524,7 +4516,7 @@
         <f t="shared" si="8"/>
         <v>39965</v>
       </c>
-      <c r="B130" s="51" t="s">
+      <c r="B130" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C130" s="13">
@@ -4548,7 +4540,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
-      <c r="B131" s="51" t="s">
+      <c r="B131" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C131" s="13"/>
@@ -4568,7 +4560,7 @@
         <f>EDATE(A130,1)</f>
         <v>39995</v>
       </c>
-      <c r="B132" s="51" t="s">
+      <c r="B132" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C132" s="13">
@@ -4593,7 +4585,7 @@
         <f t="shared" si="8"/>
         <v>40026</v>
       </c>
-      <c r="B133" s="51" t="s">
+      <c r="B133" s="20" t="s">
         <v>141</v>
       </c>
       <c r="C133" s="13">
@@ -4618,7 +4610,7 @@
         <f t="shared" si="8"/>
         <v>40057</v>
       </c>
-      <c r="B134" s="51" t="s">
+      <c r="B134" s="20" t="s">
         <v>114</v>
       </c>
       <c r="C134" s="13">
@@ -4643,7 +4635,7 @@
         <f t="shared" si="8"/>
         <v>40087</v>
       </c>
-      <c r="B135" s="51" t="s">
+      <c r="B135" s="20" t="s">
         <v>142</v>
       </c>
       <c r="C135" s="13">
@@ -4668,7 +4660,7 @@
         <f t="shared" si="8"/>
         <v>40118</v>
       </c>
-      <c r="B136" s="51" t="s">
+      <c r="B136" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C136" s="13">
@@ -4693,7 +4685,7 @@
         <f>EDATE(A136,1)</f>
         <v>40148</v>
       </c>
-      <c r="B137" s="51" t="s">
+      <c r="B137" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C137" s="13">
@@ -4717,7 +4709,7 @@
       <c r="A138" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="B138" s="51"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
       <c r="E138" s="13"/>
@@ -4736,7 +4728,7 @@
         <f>EDATE(A137,1)</f>
         <v>40179</v>
       </c>
-      <c r="B139" s="51" t="s">
+      <c r="B139" s="20" t="s">
         <v>145</v>
       </c>
       <c r="C139" s="13">
@@ -4761,7 +4753,7 @@
         <f>EDATE(A139,1)</f>
         <v>40210</v>
       </c>
-      <c r="B140" s="51" t="s">
+      <c r="B140" s="20" t="s">
         <v>146</v>
       </c>
       <c r="C140" s="13">
@@ -4786,7 +4778,7 @@
         <f t="shared" ref="A141:A150" si="9">EDATE(A140,1)</f>
         <v>40238</v>
       </c>
-      <c r="B141" s="51" t="s">
+      <c r="B141" s="20" t="s">
         <v>147</v>
       </c>
       <c r="C141" s="13">
@@ -4811,7 +4803,7 @@
         <f t="shared" si="9"/>
         <v>40269</v>
       </c>
-      <c r="B142" s="51" t="s">
+      <c r="B142" s="20" t="s">
         <v>148</v>
       </c>
       <c r="C142" s="13">
@@ -4836,7 +4828,7 @@
         <f t="shared" si="9"/>
         <v>40299</v>
       </c>
-      <c r="B143" s="51" t="s">
+      <c r="B143" s="20" t="s">
         <v>149</v>
       </c>
       <c r="C143" s="13">
@@ -4861,7 +4853,7 @@
         <f t="shared" si="9"/>
         <v>40330</v>
       </c>
-      <c r="B144" s="51" t="s">
+      <c r="B144" s="20" t="s">
         <v>147</v>
       </c>
       <c r="C144" s="13">
@@ -4911,7 +4903,7 @@
         <f t="shared" si="9"/>
         <v>40391</v>
       </c>
-      <c r="B146" s="51" t="s">
+      <c r="B146" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C146" s="13">
@@ -4936,7 +4928,7 @@
         <f t="shared" si="9"/>
         <v>40422</v>
       </c>
-      <c r="B147" s="51" t="s">
+      <c r="B147" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C147" s="13">
@@ -4961,7 +4953,7 @@
         <f t="shared" si="9"/>
         <v>40452</v>
       </c>
-      <c r="B148" s="51" t="s">
+      <c r="B148" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C148" s="13">
@@ -4986,7 +4978,7 @@
         <f t="shared" si="9"/>
         <v>40483</v>
       </c>
-      <c r="B149" s="51" t="s">
+      <c r="B149" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C149" s="13">
@@ -5033,7 +5025,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
-      <c r="B151" s="51" t="s">
+      <c r="B151" s="20" t="s">
         <v>154</v>
       </c>
       <c r="C151" s="13"/>
@@ -5055,7 +5047,7 @@
       <c r="A152" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="B152" s="51"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="13"/>
       <c r="D152" s="39"/>
       <c r="E152" s="13"/>
@@ -5074,7 +5066,7 @@
         <f>EDATE(A150,1)</f>
         <v>40544</v>
       </c>
-      <c r="B153" s="51" t="s">
+      <c r="B153" s="20" t="s">
         <v>156</v>
       </c>
       <c r="C153" s="13">
@@ -5101,7 +5093,7 @@
         <f>EDATE(A153,1)</f>
         <v>40575</v>
       </c>
-      <c r="B154" s="51" t="s">
+      <c r="B154" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C154" s="13">
@@ -5126,7 +5118,7 @@
         <f t="shared" ref="A155:A164" si="10">EDATE(A154,1)</f>
         <v>40603</v>
       </c>
-      <c r="B155" s="51" t="s">
+      <c r="B155" s="20" t="s">
         <v>157</v>
       </c>
       <c r="C155" s="13">
@@ -5151,7 +5143,7 @@
         <f t="shared" si="10"/>
         <v>40634</v>
       </c>
-      <c r="B156" s="51" t="s">
+      <c r="B156" s="20" t="s">
         <v>158</v>
       </c>
       <c r="C156" s="13">
@@ -5176,7 +5168,7 @@
         <f t="shared" si="10"/>
         <v>40664</v>
       </c>
-      <c r="B157" s="51" t="s">
+      <c r="B157" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C157" s="13">
@@ -5201,7 +5193,7 @@
         <f t="shared" si="10"/>
         <v>40695</v>
       </c>
-      <c r="B158" s="51"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="13">
         <v>1.25</v>
       </c>
@@ -5222,7 +5214,7 @@
         <f t="shared" si="10"/>
         <v>40725</v>
       </c>
-      <c r="B159" s="51"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="13">
         <v>1.25</v>
       </c>
@@ -5243,7 +5235,7 @@
         <f t="shared" si="10"/>
         <v>40756</v>
       </c>
-      <c r="B160" s="51"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="13">
         <v>1.25</v>
       </c>
@@ -5264,7 +5256,7 @@
         <f t="shared" si="10"/>
         <v>40787</v>
       </c>
-      <c r="B161" s="51"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="13">
         <v>1.25</v>
       </c>
@@ -5285,7 +5277,7 @@
         <f t="shared" si="10"/>
         <v>40817</v>
       </c>
-      <c r="B162" s="51"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="13">
         <v>1.25</v>
       </c>
@@ -5306,7 +5298,7 @@
         <f t="shared" si="10"/>
         <v>40848</v>
       </c>
-      <c r="B163" s="51" t="s">
+      <c r="B163" s="20" t="s">
         <v>159</v>
       </c>
       <c r="C163" s="13">
@@ -5331,7 +5323,7 @@
         <f t="shared" si="10"/>
         <v>40878</v>
       </c>
-      <c r="B164" s="51" t="s">
+      <c r="B164" s="20" t="s">
         <v>160</v>
       </c>
       <c r="C164" s="13">
@@ -5355,7 +5347,7 @@
       <c r="A165" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B165" s="51"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="13"/>
       <c r="D165" s="39"/>
       <c r="E165" s="13"/>
@@ -5374,7 +5366,7 @@
         <f>EDATE(A164,1)</f>
         <v>40909</v>
       </c>
-      <c r="B166" s="51"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="13">
         <v>1.25</v>
       </c>
@@ -5395,7 +5387,7 @@
         <f>EDATE(A166,1)</f>
         <v>40940</v>
       </c>
-      <c r="B167" s="51"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="13">
         <v>1.25</v>
       </c>
@@ -5416,7 +5408,7 @@
         <f t="shared" ref="A168:A177" si="11">EDATE(A167,1)</f>
         <v>40969</v>
       </c>
-      <c r="B168" s="51" t="s">
+      <c r="B168" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C168" s="13">
@@ -5443,7 +5435,7 @@
         <f t="shared" si="11"/>
         <v>41000</v>
       </c>
-      <c r="B169" s="51"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="13">
         <v>1.25</v>
       </c>
@@ -5464,7 +5456,7 @@
         <f t="shared" si="11"/>
         <v>41030</v>
       </c>
-      <c r="B170" s="51" t="s">
+      <c r="B170" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C170" s="13">
@@ -5491,7 +5483,7 @@
         <f t="shared" si="11"/>
         <v>41061</v>
       </c>
-      <c r="B171" s="51"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="13">
         <v>1.25</v>
       </c>
@@ -5512,7 +5504,7 @@
         <f t="shared" si="11"/>
         <v>41091</v>
       </c>
-      <c r="B172" s="51" t="s">
+      <c r="B172" s="20" t="s">
         <v>165</v>
       </c>
       <c r="C172" s="13">
@@ -5539,7 +5531,7 @@
         <f t="shared" si="11"/>
         <v>41122</v>
       </c>
-      <c r="B173" s="51" t="s">
+      <c r="B173" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C173" s="13">
@@ -5566,7 +5558,7 @@
         <f t="shared" si="11"/>
         <v>41153</v>
       </c>
-      <c r="B174" s="51" t="s">
+      <c r="B174" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C174" s="13">
@@ -5593,7 +5585,7 @@
         <f t="shared" si="11"/>
         <v>41183</v>
       </c>
-      <c r="B175" s="51"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="13">
         <v>1.25</v>
       </c>
@@ -5614,7 +5606,7 @@
         <f t="shared" si="11"/>
         <v>41214</v>
       </c>
-      <c r="B176" s="51"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="13">
         <v>1.25</v>
       </c>
@@ -5635,7 +5627,7 @@
         <f t="shared" si="11"/>
         <v>41244</v>
       </c>
-      <c r="B177" s="51"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="13"/>
       <c r="D177" s="39"/>
       <c r="E177" s="13"/>
@@ -5653,7 +5645,7 @@
       <c r="A178" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="B178" s="51"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="13"/>
       <c r="D178" s="39"/>
       <c r="E178" s="13"/>
@@ -5672,7 +5664,7 @@
         <f>EDATE(A177,1)</f>
         <v>41275</v>
       </c>
-      <c r="B179" s="51"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="13">
         <v>1.25</v>
       </c>
@@ -5693,7 +5685,7 @@
         <f>EDATE(A179,1)</f>
         <v>41306</v>
       </c>
-      <c r="B180" s="51"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="13">
         <v>1.25</v>
       </c>
@@ -5714,7 +5706,7 @@
         <f t="shared" ref="A181:A190" si="12">EDATE(A180,1)</f>
         <v>41334</v>
       </c>
-      <c r="B181" s="51" t="s">
+      <c r="B181" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C181" s="13">
@@ -5739,7 +5731,7 @@
         <f t="shared" si="12"/>
         <v>41365</v>
       </c>
-      <c r="B182" s="51"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="13">
         <v>1.25</v>
       </c>
@@ -5760,7 +5752,7 @@
         <f t="shared" si="12"/>
         <v>41395</v>
       </c>
-      <c r="B183" s="51"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="13">
         <v>1.25</v>
       </c>
@@ -5781,7 +5773,7 @@
         <f t="shared" si="12"/>
         <v>41426</v>
       </c>
-      <c r="B184" s="51" t="s">
+      <c r="B184" s="20" t="s">
         <v>171</v>
       </c>
       <c r="C184" s="13">
@@ -5806,7 +5798,7 @@
         <f t="shared" si="12"/>
         <v>41456</v>
       </c>
-      <c r="B185" s="51" t="s">
+      <c r="B185" s="20" t="s">
         <v>172</v>
       </c>
       <c r="C185" s="13">
@@ -5831,7 +5823,7 @@
         <f t="shared" si="12"/>
         <v>41487</v>
       </c>
-      <c r="B186" s="51" t="s">
+      <c r="B186" s="20" t="s">
         <v>173</v>
       </c>
       <c r="C186" s="13">
@@ -5856,7 +5848,7 @@
         <f t="shared" si="12"/>
         <v>41518</v>
       </c>
-      <c r="B187" s="51"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="13">
         <v>1.25</v>
       </c>
@@ -5877,7 +5869,7 @@
         <f t="shared" si="12"/>
         <v>41548</v>
       </c>
-      <c r="B188" s="51" t="s">
+      <c r="B188" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C188" s="13">
@@ -5902,7 +5894,7 @@
         <f t="shared" si="12"/>
         <v>41579</v>
       </c>
-      <c r="B189" s="51"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="13">
         <v>1.25</v>
       </c>
@@ -5923,7 +5915,7 @@
         <f t="shared" si="12"/>
         <v>41609</v>
       </c>
-      <c r="B190" s="51" t="s">
+      <c r="B190" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C190" s="13">
@@ -5947,7 +5939,7 @@
       <c r="A191" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="B191" s="51"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="13"/>
       <c r="D191" s="39"/>
       <c r="E191" s="13"/>
@@ -5966,7 +5958,7 @@
         <f>EDATE(A190,1)</f>
         <v>41640</v>
       </c>
-      <c r="B192" s="51"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="13">
         <v>1.25</v>
       </c>
@@ -5987,7 +5979,7 @@
         <f>EDATE(A192,1)</f>
         <v>41671</v>
       </c>
-      <c r="B193" s="51" t="s">
+      <c r="B193" s="20" t="s">
         <v>176</v>
       </c>
       <c r="C193" s="13">
@@ -6012,7 +6004,7 @@
         <f t="shared" ref="A194:A204" si="13">EDATE(A193,1)</f>
         <v>41699</v>
       </c>
-      <c r="B194" s="51"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="13">
         <v>1.25</v>
       </c>
@@ -6033,7 +6025,7 @@
         <f t="shared" si="13"/>
         <v>41730</v>
       </c>
-      <c r="B195" s="51" t="s">
+      <c r="B195" s="20" t="s">
         <v>165</v>
       </c>
       <c r="C195" s="13">
@@ -6057,7 +6049,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
-      <c r="B196" s="51" t="s">
+      <c r="B196" s="20" t="s">
         <v>100</v>
       </c>
       <c r="C196" s="13"/>
@@ -6077,7 +6069,7 @@
         <f>EDATE(A195,1)</f>
         <v>41760</v>
       </c>
-      <c r="B197" s="51"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="13">
         <v>1.25</v>
       </c>
@@ -6098,7 +6090,7 @@
         <f t="shared" si="13"/>
         <v>41791</v>
       </c>
-      <c r="B198" s="51" t="s">
+      <c r="B198" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C198" s="13">
@@ -6125,7 +6117,7 @@
         <f t="shared" si="13"/>
         <v>41821</v>
       </c>
-      <c r="B199" s="51" t="s">
+      <c r="B199" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C199" s="13">
@@ -6150,7 +6142,7 @@
         <f t="shared" si="13"/>
         <v>41852</v>
       </c>
-      <c r="B200" s="51" t="s">
+      <c r="B200" s="20" t="s">
         <v>177</v>
       </c>
       <c r="C200" s="13">
@@ -6175,7 +6167,7 @@
         <f t="shared" si="13"/>
         <v>41883</v>
       </c>
-      <c r="B201" s="51"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="13">
         <v>1.25</v>
       </c>
@@ -6196,7 +6188,7 @@
         <f t="shared" si="13"/>
         <v>41913</v>
       </c>
-      <c r="B202" s="51"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="13">
         <v>1.25</v>
       </c>
@@ -6217,7 +6209,7 @@
         <f t="shared" si="13"/>
         <v>41944</v>
       </c>
-      <c r="B203" s="51"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="13">
         <v>1.25</v>
       </c>
@@ -6238,7 +6230,7 @@
         <f t="shared" si="13"/>
         <v>41974</v>
       </c>
-      <c r="B204" s="51" t="s">
+      <c r="B204" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C204" s="13">
@@ -6260,7 +6252,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
-      <c r="B205" s="51" t="s">
+      <c r="B205" s="20" t="s">
         <v>180</v>
       </c>
       <c r="C205" s="13"/>
@@ -6282,7 +6274,7 @@
       <c r="A206" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="B206" s="51"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="13"/>
       <c r="D206" s="39"/>
       <c r="E206" s="13"/>
@@ -6301,7 +6293,7 @@
         <f>EDATE(A204,1)</f>
         <v>42005</v>
       </c>
-      <c r="B207" s="51" t="s">
+      <c r="B207" s="20" t="s">
         <v>183</v>
       </c>
       <c r="C207" s="13">
@@ -6326,7 +6318,7 @@
         <f>EDATE(A207,1)</f>
         <v>42036</v>
       </c>
-      <c r="B208" s="51" t="s">
+      <c r="B208" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C208" s="13">
@@ -6351,7 +6343,7 @@
         <f t="shared" ref="A209:A220" si="14">EDATE(A208,1)</f>
         <v>42064</v>
       </c>
-      <c r="B209" s="51" t="s">
+      <c r="B209" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C209" s="13">
@@ -6375,7 +6367,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
-      <c r="B210" s="51" t="s">
+      <c r="B210" s="20" t="s">
         <v>184</v>
       </c>
       <c r="C210" s="13"/>
@@ -6395,7 +6387,7 @@
         <f>EDATE(A209,1)</f>
         <v>42095</v>
       </c>
-      <c r="B211" s="51" t="s">
+      <c r="B211" s="20" t="s">
         <v>185</v>
       </c>
       <c r="C211" s="13">
@@ -6420,7 +6412,7 @@
         <f t="shared" si="14"/>
         <v>42125</v>
       </c>
-      <c r="B212" s="51" t="s">
+      <c r="B212" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C212" s="13">
@@ -6444,7 +6436,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
-      <c r="B213" s="51" t="s">
+      <c r="B213" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C213" s="13"/>
@@ -6463,7 +6455,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
-      <c r="B214" s="51" t="s">
+      <c r="B214" s="20" t="s">
         <v>186</v>
       </c>
       <c r="C214" s="13"/>
@@ -6483,7 +6475,7 @@
         <f>EDATE(A212,1)</f>
         <v>42156</v>
       </c>
-      <c r="B215" s="51" t="s">
+      <c r="B215" s="20" t="s">
         <v>187</v>
       </c>
       <c r="C215" s="13">
@@ -6508,7 +6500,7 @@
         <f t="shared" si="14"/>
         <v>42186</v>
       </c>
-      <c r="B216" s="51"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="13">
         <v>1.25</v>
       </c>
@@ -6529,7 +6521,7 @@
         <f t="shared" si="14"/>
         <v>42217</v>
       </c>
-      <c r="B217" s="51"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="13">
         <v>1.25</v>
       </c>
@@ -6550,7 +6542,7 @@
         <f t="shared" si="14"/>
         <v>42248</v>
       </c>
-      <c r="B218" s="51" t="s">
+      <c r="B218" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C218" s="13">
@@ -6575,7 +6567,7 @@
         <f t="shared" si="14"/>
         <v>42278</v>
       </c>
-      <c r="B219" s="51" t="s">
+      <c r="B219" s="20" t="s">
         <v>189</v>
       </c>
       <c r="C219" s="13">
@@ -6600,7 +6592,7 @@
         <f t="shared" si="14"/>
         <v>42309</v>
       </c>
-      <c r="B220" s="51" t="s">
+      <c r="B220" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C220" s="13">
@@ -6627,7 +6619,7 @@
         <f>EDATE(A220,1)</f>
         <v>42339</v>
       </c>
-      <c r="B221" s="51"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="13">
         <v>1.25</v>
       </c>
@@ -6647,7 +6639,7 @@
       <c r="A222" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="B222" s="51"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="13"/>
       <c r="D222" s="39"/>
       <c r="E222" s="13"/>
@@ -6666,7 +6658,7 @@
         <f>EDATE(A221,1)</f>
         <v>42370</v>
       </c>
-      <c r="B223" s="51"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="13">
         <v>1.25</v>
       </c>
@@ -6687,7 +6679,7 @@
         <f>EDATE(A223,1)</f>
         <v>42401</v>
       </c>
-      <c r="B224" s="51"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="13">
         <v>1.25</v>
       </c>
@@ -6708,7 +6700,7 @@
         <f t="shared" ref="A225:A236" si="15">EDATE(A224,1)</f>
         <v>42430</v>
       </c>
-      <c r="B225" s="51"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="13">
         <v>1.25</v>
       </c>
@@ -6729,7 +6721,7 @@
         <f t="shared" si="15"/>
         <v>42461</v>
       </c>
-      <c r="B226" s="51" t="s">
+      <c r="B226" s="20" t="s">
         <v>195</v>
       </c>
       <c r="C226" s="13">
@@ -6753,7 +6745,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
-      <c r="B227" s="51" t="s">
+      <c r="B227" s="20" t="s">
         <v>197</v>
       </c>
       <c r="C227" s="13"/>
@@ -6770,7 +6762,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
-      <c r="B228" s="51" t="s">
+      <c r="B228" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C228" s="13"/>
@@ -6787,7 +6779,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
-      <c r="B229" s="51" t="s">
+      <c r="B229" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C229" s="13"/>
@@ -6809,7 +6801,7 @@
         <f>EDATE(A226,1)</f>
         <v>42491</v>
       </c>
-      <c r="B230" s="51"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="13">
         <v>1.25</v>
       </c>
@@ -6830,7 +6822,7 @@
         <f t="shared" si="15"/>
         <v>42522</v>
       </c>
-      <c r="B231" s="51"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="13">
         <v>1.25</v>
       </c>
@@ -6851,7 +6843,7 @@
         <f t="shared" si="15"/>
         <v>42552</v>
       </c>
-      <c r="B232" s="51"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="13">
         <v>1.25</v>
       </c>
@@ -6872,7 +6864,7 @@
         <f t="shared" si="15"/>
         <v>42583</v>
       </c>
-      <c r="B233" s="51"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="13">
         <v>1.25</v>
       </c>
@@ -6893,7 +6885,7 @@
         <f t="shared" si="15"/>
         <v>42614</v>
       </c>
-      <c r="B234" s="51"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="13">
         <v>1.25</v>
       </c>
@@ -6914,7 +6906,7 @@
         <f t="shared" si="15"/>
         <v>42644</v>
       </c>
-      <c r="B235" s="51"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="13">
         <v>1.25</v>
       </c>
@@ -6935,7 +6927,7 @@
         <f t="shared" si="15"/>
         <v>42675</v>
       </c>
-      <c r="B236" s="51" t="s">
+      <c r="B236" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C236" s="13">
@@ -6959,7 +6951,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
-      <c r="B237" s="51" t="s">
+      <c r="B237" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C237" s="13"/>
@@ -6981,7 +6973,7 @@
         <f>EDATE(A236,1)</f>
         <v>42705</v>
       </c>
-      <c r="B238" s="51"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="13">
         <v>1.25</v>
       </c>
@@ -7001,7 +6993,7 @@
       <c r="A239" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="B239" s="51"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="13"/>
       <c r="D239" s="39"/>
       <c r="E239" s="13"/>
@@ -7020,7 +7012,7 @@
         <f>EDATE(A238,1)</f>
         <v>42736</v>
       </c>
-      <c r="B240" s="51"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="13">
         <v>1.25</v>
       </c>
@@ -7041,7 +7033,7 @@
         <f>EDATE(A240,1)</f>
         <v>42767</v>
       </c>
-      <c r="B241" s="51"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="13">
         <v>1.25</v>
       </c>
@@ -7062,7 +7054,7 @@
         <f t="shared" ref="A242:A252" si="16">EDATE(A241,1)</f>
         <v>42795</v>
       </c>
-      <c r="B242" s="51"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="13">
         <v>1.25</v>
       </c>
@@ -7083,7 +7075,7 @@
         <f t="shared" si="16"/>
         <v>42826</v>
       </c>
-      <c r="B243" s="51" t="s">
+      <c r="B243" s="20" t="s">
         <v>202</v>
       </c>
       <c r="C243" s="13">
@@ -7105,7 +7097,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
-      <c r="B244" s="51" t="s">
+      <c r="B244" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C244" s="13"/>
@@ -7127,7 +7119,7 @@
         <f>EDATE(A243,1)</f>
         <v>42856</v>
       </c>
-      <c r="B245" s="51"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="13">
         <v>1.25</v>
       </c>
@@ -7148,7 +7140,7 @@
         <f t="shared" si="16"/>
         <v>42887</v>
       </c>
-      <c r="B246" s="51"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="13">
         <v>1.25</v>
       </c>
@@ -7169,7 +7161,7 @@
         <f t="shared" si="16"/>
         <v>42917</v>
       </c>
-      <c r="B247" s="51"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="13">
         <v>1.25</v>
       </c>
@@ -7190,7 +7182,7 @@
         <f t="shared" si="16"/>
         <v>42948</v>
       </c>
-      <c r="B248" s="51"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="13">
         <v>1.25</v>
       </c>
@@ -7211,7 +7203,7 @@
         <f t="shared" si="16"/>
         <v>42979</v>
       </c>
-      <c r="B249" s="51"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="13">
         <v>1.25</v>
       </c>
@@ -7232,7 +7224,7 @@
         <f t="shared" si="16"/>
         <v>43009</v>
       </c>
-      <c r="B250" s="51"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="13">
         <v>1.25</v>
       </c>
@@ -7253,7 +7245,7 @@
         <f t="shared" si="16"/>
         <v>43040</v>
       </c>
-      <c r="B251" s="51"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="13">
         <v>1.25</v>
       </c>
@@ -7274,7 +7266,7 @@
         <f t="shared" si="16"/>
         <v>43070</v>
       </c>
-      <c r="B252" s="51" t="s">
+      <c r="B252" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C252" s="13">
@@ -7296,7 +7288,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
-      <c r="B253" s="51"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="13"/>
       <c r="D253" s="39"/>
       <c r="E253" s="13"/>
@@ -7312,7 +7304,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
-      <c r="B254" s="51"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="13"/>
       <c r="D254" s="39"/>
       <c r="E254" s="13"/>
@@ -8818,7 +8810,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13">
@@ -8838,7 +8830,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13">
@@ -8858,7 +8850,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13">
@@ -8878,7 +8870,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -8898,7 +8890,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13">
@@ -8918,7 +8910,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13">
@@ -8938,7 +8930,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13">
@@ -8958,7 +8950,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13">
@@ -8978,7 +8970,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13">
@@ -8998,20 +8990,22 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B334" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C334" s="13"/>
+      <c r="C334" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D334" s="39">
         <v>3</v>
       </c>
       <c r="E334" s="9"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G334" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
@@ -9022,25 +9016,33 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B335" s="20"/>
-      <c r="C335" s="13"/>
-      <c r="D335" s="39"/>
+        <v>45260</v>
+      </c>
+      <c r="B335" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C335" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D335" s="39">
+        <v>2</v>
+      </c>
       <c r="E335" s="9"/>
       <c r="F335" s="20"/>
-      <c r="G335" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G335" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H335" s="39"/>
       <c r="I335" s="9"/>
       <c r="J335" s="11"/>
-      <c r="K335" s="20"/>
+      <c r="K335" s="20" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -9810,17 +9812,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -9901,12 +9903,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
